--- a/data/trans_bre/IP24_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP24_R-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>65,38%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>190,67%</t>
+          <t>135,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>126,94%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>33,61%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 9,58</t>
+          <t>-5,04; 5,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,18</t>
+          <t>0,7; 7,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,86</t>
+          <t>-0,23; 7,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 11,35</t>
+          <t>-1,66; 10,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,68; 155,5</t>
+          <t>-30,94; 45,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,59; 456,67</t>
+          <t>11,3; 512,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,19; 317,01</t>
+          <t>-4,44; 158,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 100,93</t>
+          <t>-11,77; 115,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>65,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>135,94%</t>
+          <t>190,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>126,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>29,41%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,3</t>
+          <t>1,12; 9,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,54</t>
+          <t>3,74; 11,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 7,78</t>
+          <t>2,45; 10,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 10,39</t>
+          <t>-1,59; 11,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 45,72</t>
+          <t>9,68; 155,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,3; 512,18</t>
+          <t>60,59; 456,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 158,99</t>
+          <t>32,19; 317,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 115,51</t>
+          <t>-12,57; 100,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP24_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP24_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,67%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>-10,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,24%</t>
+          <t>-13,01%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 6,98</t>
+          <t>-6,94; 12,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 8,36</t>
+          <t>-15,8; 2,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 13,17</t>
+          <t>-4,5; 14,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 8,49</t>
+          <t>-21,48; 6,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 14,2</t>
+          <t>-9,35; 18,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 20,16</t>
+          <t>-22,8; 3,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 33,62</t>
+          <t>-6,97; 28,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 26,92</t>
+          <t>-36,15; 14,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>-4,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>135,94%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>26,34%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,3</t>
+          <t>-6,38; 5,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,54</t>
+          <t>1,51; 10,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 7,78</t>
+          <t>-3,05; 7,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 10,39</t>
+          <t>-2,86; 11,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 45,72</t>
+          <t>-26,26; 31,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,3; 512,18</t>
+          <t>15,52; 232,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 158,99</t>
+          <t>-19,58; 66,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 115,51</t>
+          <t>-15,73; 89,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,38%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>190,67%</t>
+          <t>231,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>126,94%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>-4,99%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 9,58</t>
+          <t>-3,54; 8,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,18</t>
+          <t>0,15; 5,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,86</t>
+          <t>0,4; 8,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 11,35</t>
+          <t>-6,56; 5,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 155,5</t>
+          <t>-26,72; 140,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,59; 456,67</t>
+          <t>-32,28; 1368,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,19; 317,01</t>
+          <t>0,72; 312,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 100,93</t>
+          <t>-45,07; 54,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>83,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>167,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>123,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>45,5%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,31</t>
+          <t>1,97; 11,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,6</t>
+          <t>4,21; 14,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,27</t>
+          <t>2,12; 13,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,58</t>
+          <t>-1,33; 15,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 24,81</t>
+          <t>14,17; 195,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 53,47</t>
+          <t>44,96; 461,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,06; 54,03</t>
+          <t>17,89; 329,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 50,18</t>
+          <t>-11,85; 138,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,16</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27,5%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 5,7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 7,64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 8,67</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 7,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 26,33</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 52,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 56,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 50,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP24_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP24_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 12,26</t>
+          <t>-7,66; 11,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 2,45</t>
+          <t>-15,88; 2,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 14,76</t>
+          <t>-5,68; 12,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 6,03</t>
+          <t>-20,84; 7,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 18,91</t>
+          <t>-10,21; 17,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 3,92</t>
+          <t>-22,51; 4,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 28,24</t>
+          <t>-8,75; 24,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 14,36</t>
+          <t>-36,0; 15,47</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 5,54</t>
+          <t>-6,63; 4,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 10,3</t>
+          <t>1,84; 10,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 7,17</t>
+          <t>-3,44; 7,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 11,02</t>
+          <t>-2,46; 10,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 31,45</t>
+          <t>-27,26; 22,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,52; 232,0</t>
+          <t>20,61; 235,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 66,62</t>
+          <t>-22,13; 63,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 89,85</t>
+          <t>-15,02; 85,36</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 8,98</t>
+          <t>-3,42; 9,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 5,81</t>
+          <t>0,08; 6,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,25</t>
+          <t>-0,2; 8,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 5,05</t>
+          <t>-6,3; 4,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 140,33</t>
+          <t>-27,93; 140,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 1368,61</t>
+          <t>-34,86; 1329,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 312,35</t>
+          <t>-12,64; 336,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,07; 54,93</t>
+          <t>-42,9; 51,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 11,18</t>
+          <t>1,55; 11,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 14,51</t>
+          <t>4,34; 14,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 13,35</t>
+          <t>2,27; 13,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 15,72</t>
+          <t>-0,84; 16,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 195,12</t>
+          <t>12,67; 197,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,96; 461,92</t>
+          <t>53,95; 433,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 329,78</t>
+          <t>20,7; 332,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 138,62</t>
+          <t>-10,52; 140,14</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,7</t>
+          <t>-1,49; 5,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,64</t>
+          <t>1,11; 7,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 8,67</t>
+          <t>1,62; 8,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,63</t>
+          <t>-0,9; 7,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 26,33</t>
+          <t>-5,84; 26,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 52,29</t>
+          <t>5,97; 54,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,44; 56,14</t>
+          <t>9,42; 54,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 50,46</t>
+          <t>-4,65; 54,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP24_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP24_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>-13,57%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 11,67</t>
+          <t>-7,58; 11,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 2,7</t>
+          <t>-16,17; 2,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 12,89</t>
+          <t>-5,1; 14,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 7,25</t>
+          <t>-21,29; 5,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 17,93</t>
+          <t>-9,96; 17,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 4,62</t>
+          <t>-23,15; 5,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 24,02</t>
+          <t>-7,79; 26,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 15,47</t>
+          <t>-36,08; 12,47</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>33,02%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 4,16</t>
+          <t>-6,81; 4,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,32</t>
+          <t>1,72; 10,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 7,2</t>
+          <t>-3,02; 6,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 10,98</t>
+          <t>-2,47; 13,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,26; 22,87</t>
+          <t>-27,34; 25,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,61; 235,78</t>
+          <t>16,46; 235,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 63,34</t>
+          <t>-19,51; 63,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 85,36</t>
+          <t>-13,34; 102,12</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>-10,27%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 9,34</t>
+          <t>-3,5; 8,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 6,22</t>
+          <t>0,38; 6,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 8,09</t>
+          <t>0,16; 8,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 4,96</t>
+          <t>-7,6; 5,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 140,7</t>
+          <t>-29,99; 124,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,86; 1329,6</t>
+          <t>-22,43; 1372,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 336,11</t>
+          <t>-0,59; 375,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 51,25</t>
+          <t>-44,92; 60,24</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>76,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 11,4</t>
+          <t>1,25; 10,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 14,88</t>
+          <t>3,96; 14,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 13,18</t>
+          <t>2,42; 14,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 16,14</t>
+          <t>0,95; 36,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 197,0</t>
+          <t>10,75; 192,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,95; 433,08</t>
+          <t>41,38; 433,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 332,75</t>
+          <t>26,18; 335,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 140,14</t>
+          <t>-3,43; 303,99</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>30,9%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 5,68</t>
+          <t>-1,94; 5,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,88</t>
+          <t>1,23; 7,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 8,3</t>
+          <t>1,6; 8,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 7,94</t>
+          <t>-0,44; 15,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 26,15</t>
+          <t>-7,92; 24,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 54,73</t>
+          <t>7,25; 53,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 54,5</t>
+          <t>9,06; 54,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 54,78</t>
+          <t>-2,62; 101,24</t>
         </is>
       </c>
     </row>
